--- a/doc/CS673_ProgressReport_team3.xlsx
+++ b/doc/CS673_ProgressReport_team3.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="167">
   <si>
     <t xml:space="preserve">This report has 1 group iteration progress summary sheet to be filled at the end of each iteration by the team leader, 
 1 project ontribution sheet to be filled by everyone at the end of the semester, and 1 weekly report sheet per student. </t>
@@ -138,6 +138,15 @@
     <t>06/11 - 06/18</t>
   </si>
   <si>
+    <t>Project was finalized</t>
+  </si>
+  <si>
+    <t>There was an issue with user facilitator tests not working as expected but was fixed</t>
+  </si>
+  <si>
+    <t>The biggest issue was only one week to fix the previous iteration issues and ship whatever remaining features we had</t>
+  </si>
+  <si>
     <t>This sheet need to be filled by the end of the semester. You should clearly describe your contribution to 
 the group project in each category in the whole semester.</t>
   </si>
@@ -181,27 +190,30 @@
     <t>Magnus Urosev</t>
   </si>
   <si>
-    <t>Created draft and first full version of SPPP along with all documents needed for Iteration0
+    <t>Created draft and first full version of SPPP along with all documents needed for Iteration0. Updated SPPP through every iteration and submitted
 Edited document and prepared for submission of Iteration1
 Edited and prepared document for submission of Iteration2</t>
   </si>
   <si>
-    <t>Created initital SDD for submission of Iteration0 and applied later feedback from Iteration0 for submission of Iteration1 also for Iteration2</t>
+    <t>Over saw and assigned some user stories on pivotal tracker</t>
   </si>
   <si>
-    <t>Created initial draft for Iteration1 and refined for Iteration2</t>
+    <t xml:space="preserve">Created initital SDD for submission of Iteration0 and applied later feedback from Iteration0 for submission of Iteration1 also for Iteration2 and Iteration3. Add missing software architecture diagram and class diagram on ORM. </t>
   </si>
   <si>
-    <t>Prepared and presented presentations for Iteration 0 and Iteration 1</t>
+    <t>Created initial draft for Iteration1 and refined for Iteration2 and finalized for Iteration3.</t>
   </si>
   <si>
-    <t>Added intial backend code for Django</t>
+    <t xml:space="preserve">Prepared and presented presentations for Iteration 0 and Iteration 1 and created and organized PowerPoint for the final presentation. Assigned roles and speaking points to each member for final presentation. </t>
+  </si>
+  <si>
+    <t>Added intial backend code for Django and reviewed and approved Pull Requests</t>
   </si>
   <si>
     <t xml:space="preserve">Created unittests for submission of Iteration1 testing the implementation of question and survey models. 23 tests made within the Django test, 100% pass. </t>
   </si>
   <si>
-    <t>Lead and organized team through iterations
+    <t>Lead and organized team through iterations using discord and hosted almost all meetings and one on ones when needed
 Facilitated meeting via zoom
 Reached out privately with group memebers and facilitated 1-on-1s to make sure everyone was on track</t>
   </si>
@@ -216,6 +228,24 @@
   </si>
   <si>
     <t>Xi Zeng</t>
+  </si>
+  <si>
+    <t>Updating all ERD for DB</t>
+  </si>
+  <si>
+    <t>Updateing the newer version of automated testing</t>
+  </si>
+  <si>
+    <t>Demo the app for the last iteration</t>
+  </si>
+  <si>
+    <t>Implemented survey platform for users take and view surveys, group api for surveys</t>
+  </si>
+  <si>
+    <t>Implemented selenium and API automated testing; Factored previous automated testing; Revised bugs by manually testing</t>
+  </si>
+  <si>
+    <t>Wrote readme for surveys folder and users folder for testing</t>
   </si>
   <si>
     <t>Your Lead Roles: Configuration Leader, Security Leader</t>
@@ -466,6 +496,31 @@
 2 - Prepare for final push</t>
   </si>
   <si>
+    <t>2 - Completing UML diagrams for presentation and documentation
+4 - Testing pull requests before merging onto main
+5 - Hosting meetings and communicating with team members via discord or privately on tasks
+7 - Reviewing feedback on documents from previous iterations</t>
+  </si>
+  <si>
+    <t>4 - Merged team members pull requests onto main
+5 - Team members are completing assigned tasks
+7 - Made changes to documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Tight deadline
+2. Scheduling issues </t>
+  </si>
+  <si>
+    <t>1. Do whatever is needed to deliver the mininum viable product
+2. Send more reminders on tasks and deadlines</t>
+  </si>
+  <si>
+    <t>0 - The class will be over</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -562,12 +617,88 @@
   <si>
     <t>Building first draft ERD for DBs, Thinking throgh testing case from DBs side and communicating with teamate for their aspect of testing case.</t>
   </si>
+  <si>
+    <t>0 - Learning matirial from course and finish the quiz</t>
+  </si>
+  <si>
+    <t>I went back China and needed VPN to get connected to discord and google's enviroment</t>
+  </si>
+  <si>
+    <t>Review the meetings and catch up the progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 - Learning matirial from course 
+1 - analysing what we need for the DB to design a ERD
+2 - starting design a ERD for DB
+</t>
+  </si>
+  <si>
+    <t>Changing the Ideal of exam to survey</t>
+  </si>
+  <si>
+    <t>Revise the design</t>
+  </si>
+  <si>
+    <t>Finish the ERD and start the DB design</t>
+  </si>
+  <si>
+    <t>0 - Learning matirial from course and finish the quiz
+1 - based on updates to analysis the DB needs
+2 - finished the ERD and DB design
+3 - implement the Model and admin for DB</t>
+  </si>
+  <si>
+    <t>ERD for DB, Models and admin for DB</t>
+  </si>
+  <si>
+    <t>Finding that we don't have much time to do, so the ERD would be ideal model.</t>
+  </si>
+  <si>
+    <t>Focusing on finishing the suvey DB in a more sample way, the ERD would be the complete model.</t>
+  </si>
+  <si>
+    <t>Finishing the survey model and finish auto testing for survey model</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">0 - Learning matirial from course and finish the quiz
+2 - Design a survey platform that users can take surveys and view their survey results
+3 - Implement the survey webserver for survey, and automated testing for functionality, quality, accuracy
+4 - Manually and automated testing to find bugs in the code, then revised bugs
+5 - Group meetings and showing the code functionalities
+6 - Writing </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>readme.md</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> for users and surveys folder to illustrate the functionalities and how to testing by Django</t>
+    </r>
+  </si>
+  <si>
+    <t>Survey platform, group up survey api, simplify previous testing, design and implement api testing, selenium automated testing</t>
+  </si>
+  <si>
+    <t>Doesn't have enough time to fine-tune the webserver and revise the api of falcuty side that requires login to protect the survey takers.</t>
+  </si>
+  <si>
+    <t>Found of the improtance of risk management, as I was lost of connect with teammate.</t>
+  </si>
+  <si>
+    <t>End of class</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -614,6 +745,10 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -655,7 +790,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -735,6 +870,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1246,7 +1384,7 @@
         <v>2.0</v>
       </c>
       <c r="K6" s="8">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="L6" s="8">
         <v>148.0</v>
@@ -1286,12 +1424,34 @@
       <c r="B7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="8">
+        <v>17.0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="6"/>
@@ -2313,15 +2473,16 @@
   <cols>
     <col customWidth="1" min="1" max="2" width="12.63"/>
     <col customWidth="1" min="3" max="3" width="15.88"/>
-    <col customWidth="1" min="4" max="5" width="12.63"/>
-    <col customWidth="1" min="6" max="6" width="10.63"/>
+    <col customWidth="1" min="4" max="4" width="27.13"/>
+    <col customWidth="1" min="5" max="5" width="22.88"/>
+    <col customWidth="1" min="6" max="6" width="25.75"/>
     <col customWidth="1" min="12" max="12" width="36.75"/>
     <col hidden="1" min="13" max="26" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.0" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -2351,37 +2512,37 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
@@ -2401,50 +2562,71 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K4" s="8"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
@@ -2685,7 +2867,7 @@
   <sheetData>
     <row r="1" ht="39.75" hidden="1" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
@@ -2710,22 +2892,22 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>16</v>
@@ -2749,22 +2931,22 @@
         <v>22</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
@@ -2779,7 +2961,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C3" s="7">
         <f t="shared" ref="C3:C6" si="1">D3+E3</f>
@@ -2793,7 +2975,7 @@
         <v>1.0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G3" s="7">
         <v>3.0</v>
@@ -2820,16 +3002,16 @@
         <v>0.0</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="S3" s="7">
         <v>40.0</v>
@@ -2860,7 +3042,7 @@
         <v>0.0</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G4" s="7">
         <v>0.0</v>
@@ -2881,22 +3063,22 @@
         <v>0.5</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="N4" s="7">
         <v>0.0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="S4" s="7">
         <v>40.0</v>
@@ -2928,7 +3110,7 @@
         <v>1.5</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7">
         <v>2.0</v>
@@ -2955,16 +3137,16 @@
         <v>10.0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="S5" s="7">
         <v>30.0</v>
@@ -3045,7 +3227,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="16" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -30861,7 +31043,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="19" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -30887,7 +31069,7 @@
     </row>
     <row r="2" ht="39.75" customHeight="1">
       <c r="A2" s="20" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
@@ -30908,22 +31090,22 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -30947,22 +31129,22 @@
         <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -30977,7 +31159,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C4" s="21">
         <f t="shared" ref="C4:C8" si="1">D4+E4</f>
@@ -30991,7 +31173,7 @@
         <v>2.0</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="G4" s="21">
         <v>3.0</v>
@@ -31010,16 +31192,16 @@
         <v>4.0</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="R4" s="22" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="S4" s="22">
         <v>25.0</v>
@@ -31048,7 +31230,7 @@
         <v>56</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="7">
@@ -31071,16 +31253,16 @@
         <v>3.0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="S5" s="7">
         <v>60.0</v>
@@ -31108,7 +31290,7 @@
         <v>10.0</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G6" s="7">
         <v>10.0</v>
@@ -31125,16 +31307,16 @@
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="S6" s="7">
         <v>120.0</v>
@@ -31159,7 +31341,7 @@
         <v>40</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -31178,16 +31360,16 @@
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="S7" s="7">
         <v>160.0</v>
@@ -31205,25 +31387,46 @@
       </c>
       <c r="C8" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D8" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="I8" s="7">
+        <v>10.0</v>
+      </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="K8" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>8.0</v>
+      </c>
       <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
+      <c r="O8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
@@ -35865,7 +36068,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="19" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -35891,7 +36094,7 @@
     </row>
     <row r="2" ht="39.75" customHeight="1">
       <c r="A2" s="20" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
@@ -35912,22 +36115,22 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -35951,22 +36154,22 @@
         <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -35981,7 +36184,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C4" s="23">
         <f t="shared" ref="C4:C7" si="1">D4+E4</f>
@@ -35995,7 +36198,7 @@
         <v>1.0</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="G4" s="23">
         <v>3.0</v>
@@ -36015,13 +36218,13 @@
       </c>
       <c r="O4" s="23"/>
       <c r="P4" s="26" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="26" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="R4" s="26" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="S4" s="23">
         <v>6.0</v>
@@ -36050,7 +36253,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7">
         <v>2.0</v>
@@ -36073,16 +36276,16 @@
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="7" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="S5" s="7">
         <v>15.0</v>
@@ -36100,14 +36303,14 @@
       </c>
       <c r="C6" s="25">
         <f t="shared" si="1"/>
-        <v>21.5</v>
+        <v>22.5</v>
       </c>
       <c r="D6" s="25">
         <f t="shared" si="2"/>
-        <v>21.5</v>
+        <v>22.5</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="G6" s="7">
         <v>2.5</v>
@@ -36120,7 +36323,7 @@
         <v>12.0</v>
       </c>
       <c r="K6" s="7">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L6" s="7">
         <v>2.5</v>
@@ -36128,16 +36331,16 @@
       <c r="M6" s="7"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="S6" s="7">
         <v>25.0</v>
@@ -36161,7 +36364,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -40797,7 +41000,7 @@
     <col customWidth="1" min="3" max="3" width="7.25"/>
     <col customWidth="1" min="4" max="4" width="8.38"/>
     <col customWidth="1" min="5" max="5" width="7.13"/>
-    <col customWidth="1" min="6" max="6" width="32.5"/>
+    <col customWidth="1" min="6" max="6" width="83.75"/>
     <col customWidth="1" min="7" max="7" width="5.63"/>
     <col customWidth="1" min="8" max="8" width="5.75"/>
     <col customWidth="1" min="9" max="9" width="5.88"/>
@@ -40815,7 +41018,7 @@
   <sheetData>
     <row r="1" ht="39.75" customHeight="1">
       <c r="A1" s="27" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
@@ -40836,22 +41039,22 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>16</v>
@@ -40875,22 +41078,22 @@
         <v>22</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
@@ -40905,7 +41108,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C3" s="21">
         <f t="shared" ref="C3:C7" si="1">D3+E3</f>
@@ -40919,7 +41122,7 @@
         <v>1.0</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="G3" s="22">
         <v>5.0</v>
@@ -40947,13 +41150,13 @@
       </c>
       <c r="O3" s="21"/>
       <c r="P3" s="22" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="S3" s="22">
         <v>10.0</v>
@@ -40975,25 +41178,55 @@
       </c>
       <c r="C4" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0.0</v>
+      </c>
       <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
+      <c r="P4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="S4" s="7">
+        <v>20.0</v>
+      </c>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
@@ -41007,25 +41240,55 @@
       </c>
       <c r="C5" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0.0</v>
+      </c>
       <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
+      <c r="P5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="S5" s="7">
+        <v>40.0</v>
+      </c>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
@@ -41039,25 +41302,57 @@
       </c>
       <c r="C6" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D6" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="S6" s="7">
+        <v>60.0</v>
+      </c>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -41071,25 +41366,57 @@
       </c>
       <c r="C7" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D7" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="E7" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>30.0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="S7" s="7">
+        <v>0.0</v>
+      </c>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
@@ -45694,6 +46021,9 @@
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="F7"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>